--- a/N２.xlsx
+++ b/N２.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lihong/gitrep/articles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC24C00-8413-5944-8E88-8C0C4906BFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5BF5DB-16D9-9540-8AEF-8D8B32AA39F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{0E43B2A4-23F0-EB4D-91B4-28097008000C}"/>
   </bookViews>
@@ -170,15 +170,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>我想送你一份免费礼物，作为给你带来很多麻烦的道​​歉。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>でもコーヒーカップとかはもらっても困るんだけど</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>但我不介意拿个咖啡杯之类的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>我想送你一份免</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>费礼物，作为给你带来很多麻烦的道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>歉。</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -186,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,6 +233,20 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -546,7 +592,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="159" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -793,13 +839,13 @@
         <v>44</v>
       </c>
       <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>46</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6">
